--- a/mathTransformed/HMPSTT_(2019-08-21)_38_4.xlsx
+++ b/mathTransformed/HMPSTT_(2019-08-21)_38_4.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,11 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>Address</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>District</t>
         </is>
       </c>
@@ -483,6 +488,11 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>Shri Shankambari High School VandalBasavan Bagewadi</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>Vijaypur</t>
         </is>
       </c>
@@ -510,6 +520,11 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>S K O H S ShivayogamandirBadami</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>Bagalkot</t>
         </is>
       </c>
@@ -537,6 +552,11 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>S S P U College (HS) TambaIndi</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>Vijayapur</t>
         </is>
       </c>
@@ -564,6 +584,11 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>G J C H S Mylimane</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>Chikkamagalur</t>
         </is>
       </c>
@@ -589,7 +614,8 @@
           <t>GIRIDHAR G KULKARNI</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
         <is>
           <t>Sankrappa Sakri Comp. PU College (High School Section) Bagalkot</t>
         </is>
@@ -618,6 +644,11 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>K P S KudagiBasavan Bagewadi</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>Vijayapur</t>
         </is>
       </c>
@@ -645,6 +676,11 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>NEHS MasabinalBasavan Bagewadi</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>Vijayapur</t>
         </is>
       </c>
@@ -672,6 +708,11 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>Govt. Junior College (H S Section) KakkaragollaDavanagere north</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>Davanagere</t>
         </is>
       </c>
@@ -699,6 +740,11 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>Sri Pamparoodha Swamy H S Honnur</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>Davanagere</t>
         </is>
       </c>
@@ -726,6 +772,11 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>Govt. P U College ZalakiChadachan</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>Vijayapur</t>
         </is>
       </c>
@@ -753,6 +804,11 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>Satyashraya C P U CollegeRajeshwarBasavakalyan</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -780,6 +836,11 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>Sri Prabhulinga Swamy High School Heremagalr</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>Chikkamagalur</t>
         </is>
       </c>
@@ -805,7 +866,8 @@
           <t>LAXMISH BHAT</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
         <is>
           <t>Govt. PU College (High School Section) Sagar</t>
         </is>
@@ -822,7 +884,8 @@
           <t>Shivamogga.</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
         <is>
           <t>Shivamogga</t>
         </is>
@@ -846,7 +909,8 @@
           <t>MEHABOOB A YENDIGERI</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
         <is>
           <t>AID Anjuman High School Bagalkot</t>
         </is>
@@ -875,6 +939,11 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
+          <t>EX- Muncipal Govt. High SchoolKanakapura</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>Ramanagara</t>
         </is>
       </c>
@@ -902,6 +971,11 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
+          <t>G P U C (High School) BanavaraArasikere</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -929,6 +1003,11 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
+          <t>Gandhi Hindi High School MattiparappakootHosayellapur</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
           <t>Dharwad</t>
         </is>
       </c>
@@ -956,6 +1035,11 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
+          <t>S S H S Lakya</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>Chikmagaluru</t>
         </is>
       </c>
@@ -983,6 +1067,11 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
+          <t>Govt. Girls’ Junior CollegeHigh School SectionArsikere</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>Hassan – 57310</t>
         </is>
       </c>
@@ -1010,6 +1099,11 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
+          <t>G H S KolagundaArasikere</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -1037,6 +1131,11 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
+          <t>G J CIggaluruChannapatna</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>Ramanagara</t>
         </is>
       </c>
@@ -1064,6 +1163,11 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
+          <t>S N M R High School Palya Alur</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -1091,6 +1195,11 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
+          <t>Govt. High School DhupathmahagaonAurad</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -1118,6 +1227,11 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
+          <t>P T H S Bhadravathi</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>Shimoga</t>
         </is>
       </c>
@@ -1145,6 +1259,11 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
+          <t>G J C (High School Section) HaranahallyArsikere</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -1172,6 +1291,11 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
+          <t>Sri Padmamba High School HumchaHosanagara</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
           <t>Shimoga</t>
         </is>
       </c>
@@ -1199,6 +1323,11 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
+          <t>S S J V P Govt. CollegeSanthebennur</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
           <t>Channagiri</t>
         </is>
       </c>
@@ -1214,7 +1343,8 @@
           <t>Davangere.</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
         <is>
           <t>Davangere</t>
         </is>
@@ -1243,6 +1373,11 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
+          <t>D R M Govt. Junior CollegeHarihar</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
           <t>Davanagere</t>
         </is>
       </c>
@@ -1270,6 +1405,11 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
+          <t>R B P G H S AlamattiBasavan Bagewadi</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
           <t>Vijaypur</t>
         </is>
       </c>
@@ -1297,6 +1437,11 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
+          <t>G P U C (H S) Sagara</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
           <t>Shimoga</t>
         </is>
       </c>
@@ -1324,6 +1469,11 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
+          <t>R M P H S Kanakapura</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
           <t>Ramanagara</t>
         </is>
       </c>
@@ -1351,6 +1501,11 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
+          <t>G H P S BalurHosanagar</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
           <t>Shimoga</t>
         </is>
       </c>
@@ -1378,6 +1533,11 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
+          <t>M M M Girls High SchoolK R Road</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
           <t>Davanagere</t>
         </is>
       </c>
@@ -1405,6 +1565,11 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
+          <t>K P C C H S JogfallsSagar</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
           <t>Shimoga</t>
         </is>
       </c>
@@ -1432,6 +1597,11 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
+          <t>G H S MaruthipuraHosanagara</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
           <t>Shimoga</t>
         </is>
       </c>
@@ -1459,6 +1629,11 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
+          <t>S R H S Alurhatti</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
           <t>Davanagere</t>
         </is>
       </c>
@@ -1486,6 +1661,11 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
+          <t>Govt. High School UmarajChadachan</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
           <t>Vijayapur</t>
         </is>
       </c>
@@ -1511,7 +1691,8 @@
           <t>YASEEN B. SALI</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr">
         <is>
           <t>Govt. Girls PU College (High School Section) Bagalkote</t>
         </is>

--- a/mathTransformed/HMPSTT_(2019-08-21)_38_4.xlsx
+++ b/mathTransformed/HMPSTT_(2019-08-21)_38_4.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,7 +557,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Vijayapur</t>
+          <t>Vijayapura (Bijapur)</t>
         </is>
       </c>
     </row>
@@ -589,7 +589,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Chikkamagalur</t>
+          <t>Chikkamagaluru (Chikmagalur)</t>
         </is>
       </c>
     </row>
@@ -614,7 +614,6 @@
           <t>GIRIDHAR G KULKARNI</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
           <t>Sankrappa Sakri Comp. PU College (High School Section) Bagalkot</t>
@@ -649,7 +648,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Vijayapur</t>
+          <t>Vijayapura (Bijapur)</t>
         </is>
       </c>
     </row>
@@ -681,7 +680,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Vijayapur</t>
+          <t>Vijayapura (Bijapur)</t>
         </is>
       </c>
     </row>
@@ -713,7 +712,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Davanagere</t>
+          <t>Davangere</t>
         </is>
       </c>
     </row>
@@ -745,7 +744,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Davanagere</t>
+          <t>Davangere</t>
         </is>
       </c>
     </row>
@@ -777,7 +776,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Vijayapur</t>
+          <t>Vijayapura (Bijapur)</t>
         </is>
       </c>
     </row>
@@ -841,7 +840,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Chikkamagalur</t>
+          <t>Chikkamagaluru (Chikmagalur)</t>
         </is>
       </c>
     </row>
@@ -866,7 +865,6 @@
           <t>LAXMISH BHAT</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
           <t>Govt. PU College (High School Section) Sagar</t>
@@ -884,7 +882,6 @@
           <t>Shivamogga.</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
           <t>Shivamogga</t>
@@ -909,7 +906,6 @@
           <t>MEHABOOB A YENDIGERI</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
           <t>AID Anjuman High School Bagalkot</t>
@@ -1343,7 +1339,6 @@
           <t>Davangere.</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
           <t>Davangere</t>
@@ -1378,7 +1373,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Davanagere</t>
+          <t>Davangere</t>
         </is>
       </c>
     </row>
@@ -1538,7 +1533,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Davanagere</t>
+          <t>Davangere</t>
         </is>
       </c>
     </row>
@@ -1634,7 +1629,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Davanagere</t>
+          <t>Davangere</t>
         </is>
       </c>
     </row>
@@ -1666,7 +1661,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Vijayapur</t>
+          <t>Vijayapura (Bijapur)</t>
         </is>
       </c>
     </row>
@@ -1691,7 +1686,6 @@
           <t>YASEEN B. SALI</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
           <t>Govt. Girls PU College (High School Section) Bagalkote</t>

--- a/mathTransformed/HMPSTT_(2019-08-21)_38_4.xlsx
+++ b/mathTransformed/HMPSTT_(2019-08-21)_38_4.xlsx
@@ -493,7 +493,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Vijaypur</t>
+          <t>Vijayapura (Bijapur)</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Sankrappa Sakri Comp. PU College (High School Section) Bagalkot</t>
+          <t>Bagalkot</t>
         </is>
       </c>
     </row>
@@ -884,7 +884,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Shivamogga</t>
+          <t>Shivamogga (Shimoga)</t>
         </is>
       </c>
     </row>
@@ -908,7 +908,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>AID Anjuman High School Bagalkot</t>
+          <t>Bagalkot</t>
         </is>
       </c>
     </row>
@@ -1036,7 +1036,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Chikmagaluru</t>
+          <t>Chikkamagaluru (Chikmagalur)</t>
         </is>
       </c>
     </row>
@@ -1228,7 +1228,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Shimoga</t>
+          <t>Shivamogga (Shimoga)</t>
         </is>
       </c>
     </row>
@@ -1292,7 +1292,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Shimoga</t>
+          <t>Shivamogga (Shimoga)</t>
         </is>
       </c>
     </row>
@@ -1324,7 +1324,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Channagiri</t>
+          <t>Davangere</t>
         </is>
       </c>
     </row>
@@ -1405,7 +1405,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Vijaypur</t>
+          <t>Vijayapura (Bijapur)</t>
         </is>
       </c>
     </row>
@@ -1437,7 +1437,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Shimoga</t>
+          <t>Shivamogga (Shimoga)</t>
         </is>
       </c>
     </row>
@@ -1501,7 +1501,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Shimoga</t>
+          <t>Shivamogga (Shimoga)</t>
         </is>
       </c>
     </row>
@@ -1565,7 +1565,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Shimoga</t>
+          <t>Shivamogga (Shimoga)</t>
         </is>
       </c>
     </row>
@@ -1597,7 +1597,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Shimoga</t>
+          <t>Shivamogga (Shimoga)</t>
         </is>
       </c>
     </row>
@@ -1688,7 +1688,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Govt. Girls PU College (High School Section) Bagalkote</t>
+          <t>Bagalkot</t>
         </is>
       </c>
     </row>
